--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,34 +22,43 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519702</t>
+  </si>
+  <si>
     <t>005552</t>
   </si>
   <si>
     <t>005553</t>
   </si>
   <si>
+    <t>290008</t>
+  </si>
+  <si>
+    <t>001978</t>
+  </si>
+  <si>
     <t>005429</t>
   </si>
   <si>
     <t>005430</t>
   </si>
   <si>
-    <t>290008</t>
-  </si>
-  <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>001978</t>
+    <t>交银趋势优先混合</t>
   </si>
   <si>
     <t>富兰克林国海新趋势灵活配置混合A</t>
@@ -58,49 +67,85 @@
     <t>富兰克林国海新趋势灵活配置混合C</t>
   </si>
   <si>
+    <t>泰信发展主题混合</t>
+  </si>
+  <si>
+    <t>泰信互联网+主题灵活配置混合</t>
+  </si>
+  <si>
     <t>渤海汇金睿选混合A</t>
   </si>
   <si>
     <t>渤海汇金睿选混合C</t>
   </si>
   <si>
-    <t>泰信发展主题混合</t>
-  </si>
-  <si>
-    <t>交银趋势优先混合</t>
-  </si>
-  <si>
-    <t>泰信互联网+主题灵活配置混合</t>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>82.24</t>
   </si>
   <si>
     <t>27.05</t>
   </si>
   <si>
+    <t>85.30</t>
+  </si>
+  <si>
+    <t>86.01</t>
+  </si>
+  <si>
     <t>25.03</t>
   </si>
   <si>
-    <t>85.30</t>
-  </si>
-  <si>
-    <t>82.24</t>
-  </si>
-  <si>
-    <t>86.01</t>
+    <t>2.71</t>
   </si>
   <si>
     <t>1.10</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
     <t>3.46</t>
   </si>
   <si>
-    <t>2.71</t>
-  </si>
-  <si>
     <t>3.21</t>
+  </si>
+  <si>
+    <t>0.4184</t>
+  </si>
+  <si>
+    <t>0.0558</t>
+  </si>
+  <si>
+    <t>0.0196</t>
+  </si>
+  <si>
+    <t>0.0180</t>
+  </si>
+  <si>
+    <t>0.0157</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
 </sst>
 </file>
@@ -458,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,145 +525,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.9</v>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.15</v>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2546,13 +2611,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.6</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.9</v>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.15</v>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3167,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,17 +3179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.06</v>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3214,14 +3257,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -3230,14 +3363,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -3246,14 +3379,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7.15</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
@@ -3262,13 +3395,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>7.15</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2098,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3104,7 +3481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603901-永创智能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.06</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>7.15</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -600,6 +617,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1773,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
